--- a/summaries/QaTaCov_Results.xlsx
+++ b/summaries/QaTaCov_Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="32">
   <si>
     <t>mode</t>
   </si>
@@ -52,10 +52,16 @@
     <t>DSC_Covid_std</t>
   </si>
   <si>
+    <t>ΔDSC_vs_baseline</t>
+  </si>
+  <si>
     <t>HD95_Covid_mean</t>
   </si>
   <si>
     <t>HD95_Covid_std</t>
+  </si>
+  <si>
+    <t>ΔHD95_vs_baseline</t>
   </si>
   <si>
     <t>n_splits</t>
@@ -110,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -126,6 +132,11 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -146,12 +157,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,8 +193,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -188,36 +205,36 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
     <dxf>
       <font/>
       <fill>
@@ -271,6 +288,33 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
   </dxfs>
   <tableStyles count="4">
     <tableStyle count="4" pivot="0" name="MedSigLIP_FT-style">
@@ -322,8 +366,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O13" displayName="Tabella_2" name="Tabella_2" id="1">
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Q13" displayName="MedSigLip_exp" name="MedSigLip_exp" id="1">
+  <tableColumns count="17">
     <tableColumn name="mode" id="1"/>
     <tableColumn name="embedding" id="2"/>
     <tableColumn name="batch_size" id="3"/>
@@ -336,17 +380,19 @@
     <tableColumn name="guidance_mode_name" id="10"/>
     <tableColumn name="DSC_Covid_mean" id="11"/>
     <tableColumn name="DSC_Covid_std" id="12"/>
-    <tableColumn name="HD95_Covid_mean" id="13"/>
-    <tableColumn name="HD95_Covid_std" id="14"/>
-    <tableColumn name="n_splits" id="15"/>
+    <tableColumn name="ΔDSC_vs_baseline" id="13"/>
+    <tableColumn name="HD95_Covid_mean" id="14"/>
+    <tableColumn name="HD95_Covid_std" id="15"/>
+    <tableColumn name="ΔHD95_vs_baseline" id="16"/>
+    <tableColumn name="n_splits" id="17"/>
   </tableColumns>
   <tableStyleInfo name="MedSigLIP_FT-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O13" displayName="Tabella_1" name="Tabella_1" id="2">
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Q13" displayName="BioBERT_exp" name="BioBERT_exp" id="2">
+  <tableColumns count="17">
     <tableColumn name="mode" id="1"/>
     <tableColumn name="embedding" id="2"/>
     <tableColumn name="batch_size" id="3"/>
@@ -359,16 +405,18 @@
     <tableColumn name="guidance_mode_name" id="10"/>
     <tableColumn name="DSC_Covid_mean" id="11"/>
     <tableColumn name="DSC_Covid_std" id="12"/>
-    <tableColumn name="HD95_Covid_mean" id="13"/>
-    <tableColumn name="HD95_Covid_std" id="14"/>
-    <tableColumn name="n_splits" id="15"/>
+    <tableColumn name="ΔDSC_vs_baseline" id="13"/>
+    <tableColumn name="HD95_Covid_mean" id="14"/>
+    <tableColumn name="HD95_Covid_std" id="15"/>
+    <tableColumn name="ΔHD95_vs_baseline" id="16"/>
+    <tableColumn name="n_splits" id="17"/>
   </tableColumns>
   <tableStyleInfo name="BioBERT_FT-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H9" displayName="Tabella_3" name="Tabella_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H9" displayName="baselines_exp" name="baselines_exp" id="3">
   <tableColumns count="8">
     <tableColumn name="batch_size" id="1"/>
     <tableColumn name="depth" id="2"/>
@@ -384,7 +432,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D5" displayName="Tabella_4" name="Tabella_4" id="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D5" displayName="mappings" name="mappings" id="4">
   <tableColumns count="4">
     <tableColumn name="loss_version_code" id="1"/>
     <tableColumn name="loss_version_name" id="2"/>
@@ -610,10 +658,10 @@
     <col customWidth="1" min="7" max="8" width="18.13"/>
     <col customWidth="1" min="9" max="10" width="20.88"/>
     <col customWidth="1" min="11" max="11" width="22.13"/>
-    <col customWidth="1" min="12" max="12" width="20.13"/>
-    <col customWidth="1" min="13" max="13" width="23.25"/>
-    <col customWidth="1" min="14" max="14" width="21.25"/>
-    <col customWidth="1" min="15" max="15" width="14.63"/>
+    <col customWidth="1" min="12" max="13" width="20.13"/>
+    <col customWidth="1" min="14" max="14" width="23.25"/>
+    <col customWidth="1" min="15" max="16" width="21.25"/>
+    <col customWidth="1" min="17" max="17" width="14.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
@@ -653,7 +701,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -662,13 +710,19 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4">
         <v>64.0</v>
@@ -677,12 +731,12 @@
         <v>5.0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" s="4">
         <v>0.05</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>0.0</v>
       </c>
       <c r="H2" s="4" t="str">
@@ -705,21 +759,31 @@
         <v>0.0124</v>
       </c>
       <c r="M2" s="4">
+        <f>K2 - Baselines!D9
+</f>
+        <v>-0.00778</v>
+      </c>
+      <c r="N2" s="4">
         <v>32.5999</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>0.3243</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
+        <f>Baselines!F9 - N2
+</f>
+        <v>0.56647</v>
+      </c>
+      <c r="Q2" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4">
         <v>64.0</v>
@@ -728,12 +792,12 @@
         <v>5.0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4">
         <v>0.05</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>0.0</v>
       </c>
       <c r="H3" s="4" t="str">
@@ -756,21 +820,31 @@
         <v>0.0048</v>
       </c>
       <c r="M3" s="4">
+        <f>K3 - Baselines!D9
+</f>
+        <v>-0.00328</v>
+      </c>
+      <c r="N3" s="5">
         <v>33.0189</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <v>0.0737</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
+        <f>Baselines!F9 - N3
+</f>
+        <v>0.14747</v>
+      </c>
+      <c r="Q3" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4">
         <v>64.0</v>
@@ -779,12 +853,12 @@
         <v>5.0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4">
         <v>0.05</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>0.0</v>
       </c>
       <c r="H4" s="4" t="str">
@@ -807,21 +881,31 @@
         <v>0.0024</v>
       </c>
       <c r="M4" s="4">
+        <f>K4 - Baselines!D9
+</f>
+        <v>0.00262</v>
+      </c>
+      <c r="N4" s="4">
         <v>32.8021</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>0.3176</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
+        <f>Baselines!F9 - N4
+</f>
+        <v>0.36427</v>
+      </c>
+      <c r="Q4" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4">
         <v>64.0</v>
@@ -830,12 +914,12 @@
         <v>5.0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4">
         <v>0.05</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>1.0</v>
       </c>
       <c r="H5" s="4" t="str">
@@ -858,21 +942,31 @@
         <v>0.0051</v>
       </c>
       <c r="M5" s="4">
+        <f>K5 - Baselines!D9
+</f>
+        <v>-0.00158</v>
+      </c>
+      <c r="N5" s="4">
         <v>33.0906</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>0.5394</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
+        <f>Baselines!F9 - N5
+</f>
+        <v>0.07577</v>
+      </c>
+      <c r="Q5" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4">
         <v>64.0</v>
@@ -881,12 +975,12 @@
         <v>5.0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="4">
         <v>0.05</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>1.0</v>
       </c>
       <c r="H6" s="4" t="str">
@@ -909,21 +1003,31 @@
         <v>3.0E-4</v>
       </c>
       <c r="M6" s="4">
+        <f>K6 - Baselines!D9
+</f>
+        <v>-0.00178</v>
+      </c>
+      <c r="N6" s="4">
         <v>32.7871</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>0.2267</v>
       </c>
-      <c r="O6" s="4">
+      <c r="P6" s="4">
+        <f>Baselines!F9 - N6
+</f>
+        <v>0.37927</v>
+      </c>
+      <c r="Q6" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4">
         <v>64.0</v>
@@ -932,12 +1036,12 @@
         <v>5.0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" s="4">
         <v>0.05</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>1.0</v>
       </c>
       <c r="H7" s="4" t="str">
@@ -960,21 +1064,31 @@
         <v>0.0054</v>
       </c>
       <c r="M7" s="4">
+        <f>K7 - Baselines!D9
+</f>
+        <v>-0.00118</v>
+      </c>
+      <c r="N7" s="4">
         <v>32.6932</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <v>0.2193</v>
       </c>
-      <c r="O7" s="4">
+      <c r="P7" s="4">
+        <f>Baselines!F9 - N7
+</f>
+        <v>0.47317</v>
+      </c>
+      <c r="Q7" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4">
         <v>64.0</v>
@@ -983,12 +1097,12 @@
         <v>5.0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4">
         <v>0.05</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>2.0</v>
       </c>
       <c r="H8" s="4" t="str">
@@ -1011,21 +1125,31 @@
         <v>0.0036</v>
       </c>
       <c r="M8" s="4">
+        <f>K8 - Baselines!D9
+</f>
+        <v>-0.00068</v>
+      </c>
+      <c r="N8" s="4">
         <v>32.7767</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>0.6324</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
+        <f>Baselines!F9 - N8
+</f>
+        <v>0.38967</v>
+      </c>
+      <c r="Q8" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4">
         <v>64.0</v>
@@ -1034,12 +1158,12 @@
         <v>5.0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" s="4">
         <v>0.05</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>2.0</v>
       </c>
       <c r="H9" s="4" t="str">
@@ -1062,21 +1186,31 @@
         <v>6.0E-4</v>
       </c>
       <c r="M9" s="4">
+        <f>K9 - Baselines!D9
+</f>
+        <v>0.00232</v>
+      </c>
+      <c r="N9" s="4">
         <v>33.0268</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>0.2438</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
+        <f>Baselines!F9 - N9
+</f>
+        <v>0.13957</v>
+      </c>
+      <c r="Q9" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4">
         <v>64.0</v>
@@ -1085,12 +1219,12 @@
         <v>5.0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10" s="4">
         <v>0.05</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>2.0</v>
       </c>
       <c r="H10" s="4" t="str">
@@ -1113,21 +1247,31 @@
         <v>0.0047</v>
       </c>
       <c r="M10" s="4">
+        <f>K10 - Baselines!D9
+</f>
+        <v>-0.00328</v>
+      </c>
+      <c r="N10" s="4">
         <v>32.8937</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>0.117</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
+        <f>Baselines!F9 - N10
+</f>
+        <v>0.27267</v>
+      </c>
+      <c r="Q10" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4">
         <v>64.0</v>
@@ -1136,12 +1280,12 @@
         <v>5.0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="4">
         <v>0.05</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>3.0</v>
       </c>
       <c r="H11" s="4" t="str">
@@ -1164,21 +1308,31 @@
         <v>0.0013</v>
       </c>
       <c r="M11" s="4">
+        <f>K11 - Baselines!D9
+</f>
+        <v>-0.00008</v>
+      </c>
+      <c r="N11" s="4">
         <v>32.9435</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>0.428</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
+        <f>Baselines!F9 - N11
+</f>
+        <v>0.22287</v>
+      </c>
+      <c r="Q11" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4">
         <v>64.0</v>
@@ -1187,12 +1341,12 @@
         <v>5.0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F12" s="4">
         <v>0.05</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>3.0</v>
       </c>
       <c r="H12" s="4" t="str">
@@ -1215,21 +1369,31 @@
         <v>0.0054</v>
       </c>
       <c r="M12" s="4">
+        <f>K12 - Baselines!D9
+</f>
+        <v>-0.00218</v>
+      </c>
+      <c r="N12" s="4">
         <v>32.517</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>0.3163</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
+        <f>Baselines!F9 - N12
+</f>
+        <v>0.64937</v>
+      </c>
+      <c r="Q12" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
         <v>64.0</v>
@@ -1238,12 +1402,12 @@
         <v>5.0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F13" s="4">
         <v>0.05</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>3.0</v>
       </c>
       <c r="H13" s="4" t="str">
@@ -1266,21 +1430,38 @@
         <v>0.0059</v>
       </c>
       <c r="M13" s="4">
+        <f>K13 - Baselines!D9
+</f>
+        <v>0.00042</v>
+      </c>
+      <c r="N13" s="4">
         <v>32.9824</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>0.2227</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
+        <f>Baselines!F9 - N13
+</f>
+        <v>0.18397</v>
+      </c>
+      <c r="Q13" s="4">
         <v>3.0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="P2:P13">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M13">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G13">
-      <formula1>"#ERROR!,0,1,2,3"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C2:D13 F2:F13 I2:I13 K2:O13">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C2:D13 F2:G13 I2:I13 K2:L13 N2:O13 Q2:Q13">
       <formula1>AND(ISNUMBER(C2),(NOT(OR(NOT(ISERROR(DATEVALUE(C2))), AND(ISNUMBER(C2), LEFT(CELL("format", C2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -1312,10 +1493,10 @@
     <col customWidth="1" min="7" max="8" width="18.13"/>
     <col customWidth="1" min="9" max="10" width="20.88"/>
     <col customWidth="1" min="11" max="11" width="22.13"/>
-    <col customWidth="1" min="12" max="12" width="20.13"/>
-    <col customWidth="1" min="13" max="13" width="23.25"/>
-    <col customWidth="1" min="14" max="14" width="21.25"/>
-    <col customWidth="1" min="15" max="15" width="14.63"/>
+    <col customWidth="1" min="12" max="13" width="20.13"/>
+    <col customWidth="1" min="14" max="14" width="23.25"/>
+    <col customWidth="1" min="15" max="16" width="21.25"/>
+    <col customWidth="1" min="17" max="17" width="14.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
@@ -1355,7 +1536,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1364,13 +1545,19 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4">
         <v>64.0</v>
@@ -1379,7 +1566,7 @@
         <v>5.0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" s="4">
         <v>0.05</v>
@@ -1406,21 +1593,31 @@
         <v>6.0E-4</v>
       </c>
       <c r="M2" s="4">
+        <f>K3 - Baselines!D9
+</f>
+        <v>0.00042</v>
+      </c>
+      <c r="N2" s="4">
         <v>32.9514</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>0.2733</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
+        <f>Baselines!F9 - N2
+</f>
+        <v>0.21497</v>
+      </c>
+      <c r="Q2" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4">
         <v>64.0</v>
@@ -1429,7 +1626,7 @@
         <v>5.0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4">
         <v>0.05</v>
@@ -1456,21 +1653,31 @@
         <v>0.0015</v>
       </c>
       <c r="M3" s="4">
+        <f>K3 - Baselines!D9
+</f>
+        <v>0.00042</v>
+      </c>
+      <c r="N3" s="4">
         <v>32.7987</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <v>0.7297</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
+        <f>Baselines!F9 - N3
+</f>
+        <v>0.36767</v>
+      </c>
+      <c r="Q3" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4">
         <v>64.0</v>
@@ -1479,7 +1686,7 @@
         <v>5.0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4">
         <v>0.05</v>
@@ -1506,21 +1713,31 @@
         <v>0.0019</v>
       </c>
       <c r="M4" s="4">
+        <f>K4 - Baselines!D9
+</f>
+        <v>0.00062</v>
+      </c>
+      <c r="N4" s="4">
         <v>33.0898</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>0.8642</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
+        <f>Baselines!F9 - N4
+</f>
+        <v>0.07657</v>
+      </c>
+      <c r="Q4" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4">
         <v>64.0</v>
@@ -1529,7 +1746,7 @@
         <v>5.0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4">
         <v>0.05</v>
@@ -1556,21 +1773,31 @@
         <v>0.004</v>
       </c>
       <c r="M5" s="4">
+        <f>K5 - Baselines!D9
+</f>
+        <v>0.00302</v>
+      </c>
+      <c r="N5" s="4">
         <v>33.3752</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>0.6712</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
+        <f>Baselines!F9 - N5
+</f>
+        <v>-0.20883</v>
+      </c>
+      <c r="Q5" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4">
         <v>64.0</v>
@@ -1579,7 +1806,7 @@
         <v>5.0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="4">
         <v>0.05</v>
@@ -1606,21 +1833,31 @@
         <v>0.0018</v>
       </c>
       <c r="M6" s="4">
+        <f>K6 - Baselines!D9
+</f>
+        <v>-0.00118</v>
+      </c>
+      <c r="N6" s="4">
         <v>32.3074</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>0.3731</v>
       </c>
-      <c r="O6" s="4">
+      <c r="P6" s="4">
+        <f>Baselines!F9 - N6
+</f>
+        <v>0.85897</v>
+      </c>
+      <c r="Q6" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4">
         <v>64.0</v>
@@ -1629,7 +1866,7 @@
         <v>5.0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" s="4">
         <v>0.05</v>
@@ -1656,21 +1893,31 @@
         <v>0.0037</v>
       </c>
       <c r="M7" s="4">
+        <f>K7 - Baselines!D9
+</f>
+        <v>-0.00178</v>
+      </c>
+      <c r="N7" s="4">
         <v>32.738</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <v>0.442</v>
       </c>
-      <c r="O7" s="4">
+      <c r="P7" s="4">
+        <f>Baselines!F9 - N7
+</f>
+        <v>0.42837</v>
+      </c>
+      <c r="Q7" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4">
         <v>64.0</v>
@@ -1679,7 +1926,7 @@
         <v>5.0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4">
         <v>0.05</v>
@@ -1706,21 +1953,31 @@
         <v>0.0019</v>
       </c>
       <c r="M8" s="4">
+        <f>K8 - Baselines!D9
+</f>
+        <v>0.00272</v>
+      </c>
+      <c r="N8" s="4">
         <v>32.8983</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>0.6696</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
+        <f>Baselines!F9 - N8
+</f>
+        <v>0.26807</v>
+      </c>
+      <c r="Q8" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4">
         <v>64.0</v>
@@ -1729,7 +1986,7 @@
         <v>5.0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" s="4">
         <v>0.05</v>
@@ -1756,21 +2013,31 @@
         <v>0.0032</v>
       </c>
       <c r="M9" s="4">
+        <f>K9 - Baselines!D9
+</f>
+        <v>0.00182</v>
+      </c>
+      <c r="N9" s="4">
         <v>32.7977</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>0.4871</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
+        <f>Baselines!F9 - N9
+</f>
+        <v>0.36867</v>
+      </c>
+      <c r="Q9" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4">
         <v>64.0</v>
@@ -1779,7 +2046,7 @@
         <v>5.0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10" s="4">
         <v>0.05</v>
@@ -1806,21 +2073,31 @@
         <v>0.0016</v>
       </c>
       <c r="M10" s="4">
+        <f>K10 - Baselines!D9
+</f>
+        <v>-0.00068</v>
+      </c>
+      <c r="N10" s="4">
         <v>32.9261</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>0.7336</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
+        <f>Baselines!F9 - N10
+</f>
+        <v>0.24027</v>
+      </c>
+      <c r="Q10" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4">
         <v>64.0</v>
@@ -1829,7 +2106,7 @@
         <v>5.0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="4">
         <v>0.05</v>
@@ -1856,21 +2133,31 @@
         <v>0.005</v>
       </c>
       <c r="M11" s="4">
+        <f>K11 - Baselines!D9
+</f>
+        <v>0.00012</v>
+      </c>
+      <c r="N11" s="4">
         <v>32.9701</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>0.2916</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
+        <f>Baselines!F9 - N11
+</f>
+        <v>0.19627</v>
+      </c>
+      <c r="Q11" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4">
         <v>64.0</v>
@@ -1879,7 +2166,7 @@
         <v>5.0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F12" s="4">
         <v>0.05</v>
@@ -1906,21 +2193,31 @@
         <v>0.003</v>
       </c>
       <c r="M12" s="4">
+        <f>K12 - Baselines!D9
+</f>
+        <v>0.00002</v>
+      </c>
+      <c r="N12" s="4">
         <v>33.2834</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>0.2288</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
+        <f>Baselines!F9 - N12
+</f>
+        <v>-0.11703</v>
+      </c>
+      <c r="Q12" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4">
         <v>64.0</v>
@@ -1929,7 +2226,7 @@
         <v>5.0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F13" s="4">
         <v>0.05</v>
@@ -1956,18 +2253,43 @@
         <v>0.0035</v>
       </c>
       <c r="M13" s="4">
+        <f>K13 - Baselines!D9
+</f>
+        <v>0.00062</v>
+      </c>
+      <c r="N13" s="4">
         <v>33.0143</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>0.4971</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
+        <f>Baselines!F9 - N13
+</f>
+        <v>0.15207</v>
+      </c>
+      <c r="Q13" s="4">
         <v>3.0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M1:M13">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K13">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+      <formula>"Baselines!$D9$"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P13">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C2:D13 F2:G13 I2:I13 K2:O13">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C2:D13 F2:G13 I2:I13 K2:L13 N2:O13 Q2:Q13">
       <formula1>AND(ISNUMBER(C2),(NOT(OR(NOT(ISERROR(DATEVALUE(C2))), AND(ISNUMBER(C2), LEFT(CELL("format", C2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2018,13 +2340,13 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1">
@@ -2035,7 +2357,7 @@
         <v>3.0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4">
         <v>0.78285</v>
@@ -2061,7 +2383,7 @@
         <v>3.0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4">
         <v>0.77958</v>
@@ -2083,7 +2405,7 @@
         <v>5.0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4">
         <v>0.77411</v>
@@ -2109,7 +2431,7 @@
         <v>5.0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4">
         <v>0.78883</v>
@@ -2133,7 +2455,7 @@
         <v>3.0</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4">
         <v>0.77737</v>
@@ -2155,7 +2477,7 @@
         <v>3.0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4">
         <v>0.78077</v>
@@ -2179,7 +2501,7 @@
         <v>5.0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4">
         <v>0.7756</v>
@@ -2203,7 +2525,7 @@
         <v>5.0</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" s="9">
         <v>0.78638</v>
@@ -2270,13 +2592,13 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>9</v>
@@ -2287,13 +2609,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="17">
         <v>0.0</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
@@ -2301,13 +2623,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="17">
         <v>1.0</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
@@ -2315,13 +2637,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="17">
         <v>2.0</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
@@ -2329,7 +2651,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
